--- a/Results/低资源微调/spider-llama3B.xlsx
+++ b/Results/低资源微调/spider-llama3B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mercury-SQL\Results\低资源微调\spider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mercury-SQL\Results\低资源微调\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBBC9D5-FC71-413C-BB9C-1E9CFCE47944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EC8036-71A3-487E-B67F-D2EBDE3678D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="8520" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -223,48 +232,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +571,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -559,395 +580,400 @@
     <col min="2" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="17.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="15">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="1">
         <v>0.86299999999999999</v>
       </c>
-      <c r="G2" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="G2" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="1">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.307</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="D10" s="11">
         <v>0.71299999999999997</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="E10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
+      <c r="C11" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="C12" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11">
-        <v>0.379</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="12" t="s">
+      <c r="F12" s="1">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="7" t="s">
+      <c r="C13" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F13" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>40</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>80</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C14" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
+      <c r="F14" s="1">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.64700000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C15" s="1">
         <v>0.76700000000000002</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="11">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6" t="s">
+      <c r="F15" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="C16" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="11">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="12" t="s">
+      <c r="F16" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7" t="s">
+      <c r="C17" s="1">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="13">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>60</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="F17" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>100</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C18" s="6">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="6">
         <v>0.879</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.72</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.64200000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
+      <c r="G18" s="14">
+        <v>0.66100000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="C19" s="7">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="11">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
+      <c r="F19" s="7">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="s">
+      <c r="C20" s="7">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="11">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="12" t="s">
+      <c r="F20" s="7">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="13">
-        <v>0.41</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7" t="s">
+      <c r="C21" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="13">
-        <v>0.373</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>80</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.64200000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="13">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>100</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.74</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0.879</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.66100000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="11">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <v>0.38</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="A14:A17"/>
@@ -956,11 +982,6 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="G6:G9"/>
